--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashm\eclipse-workspace\DSAlgo\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87808AAF-E404-4AFA-88F8-F714DCC293B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87623C8-0F99-45CE-91A8-A65EB296BD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>nmm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>code</t>
   </si>
@@ -38,9 +35,6 @@
     <t>print('hello')</t>
   </si>
   <si>
-    <t>mmmhjj</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
   </si>
   <si>
     <t>rthjj</t>
-  </si>
-  <si>
-    <t>mmm</t>
   </si>
   <si>
     <t>tyuu</t>
@@ -82,6 +73,18 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>mmfgrt</t>
+  </si>
+  <si>
+    <t>mmmght</t>
+  </si>
+  <si>
+    <t>myumhjj</t>
+  </si>
+  <si>
+    <t>nyui</t>
   </si>
 </sst>
 </file>
@@ -404,30 +407,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -440,57 +443,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -502,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C814209-AAB5-42BF-A638-CBC6BFCF9BEC}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -512,16 +515,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
